--- a/inst/extdata/adams-specs.xlsx
+++ b/inst/extdata/adams-specs.xlsx
@@ -104,7 +104,7 @@
     <t>ADAE</t>
   </si>
   <si>
-    <t>Adverse Events Analysis Data</t>
+    <t>Adverse Events Analysis</t>
   </si>
   <si>
     <t>OCCURRENCE DATA STRUCTURE</t>
@@ -3930,7 +3930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -4053,7 +4053,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4073,7 +4073,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -4083,22 +4083,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </left>
       <right/>
       <top/>
@@ -4134,7 +4134,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -4146,7 +4146,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </left>
       <right/>
       <top style="thin">
@@ -4262,34 +4262,34 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -4301,76 +4301,76 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -4416,10 +4416,10 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffff9900"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="fffde9d9"/>
       <rgbColor rgb="ffbdd7ee"/>
       <rgbColor rgb="ff9a9a9a"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -4618,17 +4618,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4655,10 +4655,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4897,12 +4897,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -5179,7 +5179,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -5206,10 +5206,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/inst/extdata/adams-specs.xlsx
+++ b/inst/extdata/adams-specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mancinie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B75A6-0B75-4EBC-939B-ABA8D3F3FDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4753264-6677-4BCA-909C-29987DE18E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16193" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16193" uniqueCount="1308">
   <si>
     <t>Attribute</t>
   </si>
@@ -3954,9 +3954,6 @@
   </si>
   <si>
     <t>Temporary Height at Timepoint Units</t>
-  </si>
-  <si>
-    <t>Evalutator</t>
   </si>
   <si>
     <t>Vital Signs Analysis for Pediatrics</t>
@@ -5977,7 +5974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -6713,7 +6710,7 @@
         <v>1295</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>35</v>
@@ -6754,8 +6751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U1879"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I1800" sqref="I1800:V1801"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1790" workbookViewId="0">
+      <selection activeCell="E1800" sqref="E1800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -78811,7 +78808,7 @@
         <v>1296</v>
       </c>
       <c r="D1804" s="8" t="s">
-        <v>1307</v>
+        <v>745</v>
       </c>
       <c r="E1804" s="8" t="s">
         <v>92</v>
